--- a/biology/Zoologie/Doela/Doela.xlsx
+++ b/biology/Zoologie/Doela/Doela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La doela est une race bovine norvégienne. En norvégien, elle se nomme Dølafe.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient au rameau des races nordiques. L'effectif en 2001 était de 180 femelles et 27 mâles[1]. 100 % de femelles reproduisent en race pure. Elle bénéficie d'un programme de préservation. En 1995, 16500 paillettes de semence de 14 taureaux avaient été congelées[2]. Sa couleur originale lui fait bénéficier d'un engouement dans les fermes pédagogiques et parcs animaliers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient au rameau des races nordiques. L'effectif en 2001 était de 180 femelles et 27 mâles. 100 % de femelles reproduisent en race pure. Elle bénéficie d'un programme de préservation. En 1995, 16500 paillettes de semence de 14 taureaux avaient été congelées. Sa couleur originale lui fait bénéficier d'un engouement dans les fermes pédagogiques et parcs animaliers.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe multicolore, allant du rouge au brun au bringué ou au presque blanc. La majorité est bringuée. Les muqueuses sont rosées et les cornes sont en lyre ouverte. (15 % des individus sont sans cornes) C'est une race de taille moyenne. La vache mesure 120 cm au garrot et pèse 500 kg. Le taureau mesure 140 cm pour 1000 kg. 
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est classée mixte. C'est la race norvégienne qui donne les carcasses à plus haut rendement à l'abattage.
 </t>
